--- a/v3/ballout_xl.xlsx
+++ b/v3/ballout_xl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarioIanniello\Documents\XL-manipulator\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04B5D196-5E82-4011-8509-311B188AF12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB791513-6B0D-45E4-A488-A998CBA67EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14990" yWindow="3540" windowWidth="28800" windowHeight="15610" xr2:uid="{33809438-3A23-42F0-A598-D06EEE89493F}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="28800" windowHeight="7335" xr2:uid="{33809438-3A23-42F0-A598-D06EEE89493F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1104,13 +1104,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE3D4F2-17E9-4415-A23F-D136EED123B9}">
   <dimension ref="B2:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AF32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>64</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>69</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>76</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>78</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>82</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>89</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>92</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>99</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>101</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>105</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>108</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>111</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>114</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>119</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>123</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>125</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>128</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>130</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>133</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>136</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>142</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:32" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>153</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
